--- a/data/bill_campbell_tagged.xlsx
+++ b/data/bill_campbell_tagged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabianwittel/Library/Mobile Documents/com~apple~CloudDocs/Development/Polygraph_PoC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3619F6-7199-CE4D-A879-18293AD20A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6633E28D-BE24-C548-A594-0C4E418B3AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{01E30D9A-67EB-F64F-9ED3-1EAEAA919DEC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Page xii · Location 40</t>
   </si>
@@ -200,27 +200,15 @@
     <t>Page 51 · Location 629</t>
   </si>
   <si>
-    <t>PERFORMANCE ON JOB REQUIREMENTS Could be sales figures Could be product delivery or product milestones Could be customer feedback or product quality Could be budget numbers</t>
-  </si>
-  <si>
     <t>Page 52 · Location 635</t>
   </si>
   <si>
-    <t>RELATIONSHIP WITH PEER GROUPS ( This is critical for company integration and cohesiveness ) Product and Engineering Marketing and Product Sales and Engineering</t>
-  </si>
-  <si>
     <t>Page 52 · Location 638</t>
   </si>
   <si>
-    <t>MANAGEMENT / LEADERSHIP Are you guiding / coaching your people ? Are you weeding out the bad ones ? Are you working hard at hiring ? Are you able to get your people to do heroic things ?</t>
-  </si>
-  <si>
     <t>Page 52 · Location 640</t>
   </si>
   <si>
-    <t>INNOVATION ( BEST PRACTICES ) Are you constantly moving ahead . . . thinking about how to continually get better ? Are you constantly evaluating new technologies , new products , new practices ? Do you measure yourself against the best in the industry / world ?</t>
-  </si>
-  <si>
     <t>Page 52 · Location 642</t>
   </si>
   <si>
@@ -230,21 +218,12 @@
     <t>Page 53 · Location 649</t>
   </si>
   <si>
-    <t>It empowers the two people who are working on the issue to figure out ways to solve the problem , a fundamental principle of successful mediation . 13 And it forms a habit of working together to resolve conflict that pays off with better camaraderie and decision making for years afterward . * 14</t>
-  </si>
-  <si>
-    <t>Page 53 · Location 653</t>
-  </si>
-  <si>
     <t>He didn’t encourage democracy . ( Before he arrived at Intuit , they took votes in meetings . Bill stopped that practice . )</t>
   </si>
   <si>
     <t>Page 54 · Location 660</t>
   </si>
   <si>
-    <t>A place where the top manager makes all decisions leads to just the opposite , because people will spend their time trying to convince the manager that their idea is the best .</t>
-  </si>
-  <si>
     <t>Page 54 · Location 662</t>
   </si>
   <si>
@@ -302,21 +281,12 @@
     <t>Page 58 · Location 717</t>
   </si>
   <si>
-    <t>He thought about the first principles involved in the decision . First : the company had a solid business model that was working . Was it smart to take on a new model – software licensing ? Second : they had a good product that was , objectively , the best on the market and ahead of its time . Did they think AT &amp; T could make a better product ? Probably not . Mike convened the team and laid out these principles . Everyone agreed that they were correct , since they had been foundational for the company for a long time . The decision practically made itself . The meeting concluded in less than an hour , and the deal was off . *</t>
-  </si>
-  <si>
-    <t>Page 60 · Location 735</t>
-  </si>
-  <si>
     <t>Perhaps one of the most difficult problems facing managers is what to do with the diva , the person who’s a star performer but a pain to work with .</t>
   </si>
   <si>
     <t>Page 62 · Location 753</t>
   </si>
   <si>
-    <t>job . He called them “ aberrant geniuses , ” and said , “ You get these quirky guys or women who are going to be great differentiators for you . It is your job to manage that person in a way that doesn’t disrupt the company . They have to be able to work with other people . If they can’t , you need to let them go . They need to work in an environment where they collaborate with other people . ”</t>
-  </si>
-  <si>
     <t>Page 62 · Location 755</t>
   </si>
   <si>
@@ -386,12 +356,6 @@
     <t>Page 74 · Location 906</t>
   </si>
   <si>
-    <t>Much of this material can be sent to board members ahead of time , with the idea that they will review it and be up - to - date on most stuff when they come to the meeting . If you throw a full set of financial reports up on a screen in a board meeting , they will want to talk about it forever , and you end up getting bogged down in operational details that probably don’t need the board’s attention . Send out financial and other operational details ahead of time and expect board members to review them and come with questions .</t>
-  </si>
-  <si>
-    <t>Page 75 · Location 909</t>
-  </si>
-  <si>
     <t>And when we say expect , we mean expect : board members who don’t do their homework shouldn’t stick around .</t>
   </si>
   <si>
@@ -458,12 +422,6 @@
     <t>Page 83 · Location 994</t>
   </si>
   <si>
-    <t>Most business people , when they meet , get right to the task at hand .</t>
-  </si>
-  <si>
-    <t>Page 83 · Location 997</t>
-  </si>
-  <si>
     <t>In our world , the attitude is often first prove to me how smart you are , then maybe I’ll trust you , or at least your intellect . Bill took a different , more patient approach . He started relationships by getting to know the person , beyond their résumé and skill set . Shishir Mehrotra notes that Bill “ walked among a set of driven technologists , but he saw the world in a completely different way . . . He saw it as a network of people , learning each other’s strengths and weaknesses , and learning to trust each other as a primary mechanism of achieving goals . ”</t>
   </si>
   <si>
@@ -512,18 +470,6 @@
     <t>Page 90 · Location 1082</t>
   </si>
   <si>
-    <t>Often , when people ask for advice , all they are really asking for is approval . “ CEOs always feel like they need to know the answer , ” Ben says . “ So when they ask me for advice , I’m always getting a prepared question . I never answer those . ” Instead , like Bill , he asks more questions , trying to understand the multiple facets of a situation . This helps him get past the prepared question ( and answer ) and discover the heart of an issue .</t>
-  </si>
-  <si>
-    <t>Page 90 · Location 1084</t>
-  </si>
-  <si>
-    <t>And a 2016 paper finds that this form of “ respectful inquiry , ” where the leader asks open questions and listens attentively to the response , is effective because it heightens the “ follower’s ” feelings of competence ( feeling challenged and experiencing mastery ) , relatedness ( feeling of belonging ) , and autonomy ( feeling in control and having options ) . Those three factors are sort of the holy trinity of the self - determination theory of human motivation , originally developed by Edward L . Deci and Richard M . Ryan .</t>
-  </si>
-  <si>
-    <t>Page 91 · Location 1097</t>
-  </si>
-  <si>
     <t>Bill’s feedback was in the moment ( or very close to it ) , task specific , and always followed by a grin and a hug , all of which helped remove the sting .</t>
   </si>
   <si>
@@ -536,42 +482,18 @@
     <t>Page 94 · Location 1127</t>
   </si>
   <si>
-    <t>“ When I’m really annoyed or frustrated with what someone is doing , ” she says , “ I step back and force myself to think about what they are doing well and what their value is . You can always find something . If we’re in public , I’ll praise them on that . I’ll give constructive feedback as soon as I can , but only when the person is feeling safe . Once they are feeling safe and supported , then I’ll say ‘ by the way ’ and provide the feedback . I got this from Bill . He would always do this in a supportive way . ”</t>
-  </si>
-  <si>
-    <t>Page 94 · Location 1129</t>
-  </si>
-  <si>
-    <t>The interesting thing is — and our experience with Bill bears this out — that his candor , no matter how brutal , made you feel better .</t>
-  </si>
-  <si>
-    <t>Page 96 · Location 1155</t>
-  </si>
-  <si>
     <t>But coming from Bill it didn’t ; the formula of candor plus caring works well ! We trusted that Bill was kicking our butts to help make us better .</t>
   </si>
   <si>
     <t>Page 96 · Location 1157</t>
   </si>
   <si>
-    <t>And when he was finished asking questions and listening , and busting your butt , he usually would not tell you what to do .</t>
-  </si>
-  <si>
-    <t>Page 97 · Location 1169</t>
-  </si>
-  <si>
     <t>Don’t tell people what to do , tell them stories about why they are doing it .</t>
   </si>
   <si>
     <t>Page 97 · Location 1171</t>
   </si>
   <si>
-    <t>“ Bill coached me to tell stories . When people understand the story they can connect to it and figure out what to do .</t>
-  </si>
-  <si>
-    <t>Page 97 · Location 1172</t>
-  </si>
-  <si>
     <t>Bill’s perspective was that it’s a manager’s job to push the team to be more courageous . Courage is hard . People are naturally afraid of taking risks for fear of failure . It’s the manager’s job to push them past their reticence .</t>
   </si>
   <si>
@@ -584,21 +506,12 @@
     <t>Page 105 · Location 1257</t>
   </si>
   <si>
-    <t>He started by building trust , which only deepened over time . He was highly selective in choosing his coachees ; he would only coach the coachable , the humble , hungry lifelong learners . He listened intently , without distraction . He usually didn’t tell you what to do ; rather , he shared stories and let you draw conclusions . He gave , and demanded , complete candor . And he was an evangelist for courage , by showing inordinate confidence and setting aspirations high .</t>
-  </si>
-  <si>
-    <t>Page 105 · Location 1264</t>
-  </si>
-  <si>
     <t>Bill Campbell was a coach of teams . He built them , shaped them , put the right players in the right positions ( and removed the wrong players from the wrong positions ) , cheered them on , and kicked them in their collective butt when they were underperforming .</t>
   </si>
   <si>
     <t>Page 109 · Location 1297</t>
   </si>
   <si>
-    <t>He knew , as he often said , that “ you can’t get anything done without a team . ”</t>
-  </si>
-  <si>
     <t>Page 109 · Location 1299</t>
   </si>
   <si>
@@ -614,12 +527,6 @@
     <t>Page 111 · Location 1319</t>
   </si>
   <si>
-    <t>So why should executive teams , which consist of presumably the most talented people in the company , need a coach ? “ It was bizarre to me when I first joined the company , ” Patrick Pichette says . “ You have all these amazing people at Google . Why would they need a coach ? ”</t>
-  </si>
-  <si>
-    <t>Page 112 · Location 1332</t>
-  </si>
-  <si>
     <t>As managers , we tend to focus on the problem at hand . What is the situation ? What are the issues ? What are the options ? And so on . These are valid questions , but the coach’s instinct is to lead with a more fundamental one . Who was working on the problem ? Was the right team in place ? Did they have what they needed to succeed ?</t>
   </si>
   <si>
@@ -668,12 +575,6 @@
     <t>Page 123 · Location 1463</t>
   </si>
   <si>
-    <t>Jonathan stopped dictating and started pairing people up . The results : better decisions , stronger team .</t>
-  </si>
-  <si>
-    <t>Page 124 · Location 1470</t>
-  </si>
-  <si>
     <t>More than anyone we have ever encountered in our careers , Bill was an advocate for women being “ at the table . ” He believed in diversity on teams well before it was a common topic .</t>
   </si>
   <si>
@@ -686,24 +587,12 @@
     <t>Page 132 · Location 1570</t>
   </si>
   <si>
-    <t>A litmus test for when issues have simmered for too long , a way to spot the elephant , is if the team can’t even have honest conversations about them . This is where the coach comes in , as a “ tension spotter . ”</t>
-  </si>
-  <si>
-    <t>Page 133 · Location 1572</t>
-  </si>
-  <si>
     <t>When you hear people saying that things are getting “ political , ” that often means that problems have arisen because the data or process hasn’t led to the best decision . At that point , personalities take over .</t>
   </si>
   <si>
     <t>Page 133 · Location 1574</t>
   </si>
   <si>
-    <t>Andrea Jung , who joined the Apple board in 2008 , calls it “ learning forward . ” Not what happened and who’s to blame , but what are we going to do about it ?</t>
-  </si>
-  <si>
-    <t>Page 136 · Location 1611</t>
-  </si>
-  <si>
     <t>One way Bill was able to accomplish this trick was by staying relentlessly positive . Negative situations can be infectious , people get cynical , optimism fades .</t>
   </si>
   <si>
@@ -722,9 +611,6 @@
     <t>Page 138 · Location 1634</t>
   </si>
   <si>
-    <t>He went on to lecture Dan about how he needed to stick with it at Chegg . Leaders lead , he told him . You can’t afford to doubt . You need to commit . You can make mistakes , but you can’t have one foot in and one foot out , because if you aren’t fully committed then the people around you won’t be , either . If you’re in , be in .</t>
-  </si>
-  <si>
     <t>Page 142 · Location 1681</t>
   </si>
   <si>
@@ -734,15 +620,6 @@
     <t>Page 144 · Location 1708</t>
   </si>
   <si>
-    <t>As Bill described it , his job as our coach was to “ see little flaws in the organization that with a little massage we can make better . I listen , observe , and fill the communication and understanding gaps between people . ”</t>
-  </si>
-  <si>
-    <t>Page 145 · Location 1723</t>
-  </si>
-  <si>
-    <t>This is the power of coaching in general : the ability to offer a different perspective , one unaffected by being “ in the game . ” ( Patrick Pichette : “ Bill saw all the chess pieces all the time , because he had the luxury of not being on the board . ” )</t>
-  </si>
-  <si>
     <t>Page 146 · Location 1728</t>
   </si>
   <si>
@@ -752,12 +629,6 @@
     <t>Page 149 · Location 1772</t>
   </si>
   <si>
-    <t>When he sensed those moments , he’d work behind the scenes , drawing out people’s points of view , closing communication gaps , and fixing miscommunications , so that when the time came to discuss things in the meeting and make the decision , everyone was prepared . Then Bill would sit back , observe , and start the cycle over again .</t>
-  </si>
-  <si>
-    <t>Page 149 · Location 1773</t>
-  </si>
-  <si>
     <t>But leading teams becomes a lot more joyful when you know and care about people . It’s freeing . ”</t>
   </si>
   <si>
@@ -824,12 +695,6 @@
     <t>Page 165 · Location 1939</t>
   </si>
   <si>
-    <t>“ He provided an emotional reaction to the products , not a dry , boring , revenue - driven board reaction . He’d be out of his seat , an explosion of emotion . ” The effect of this wasn’t so much about the approval of the product . It was about approval of the team .</t>
-  </si>
-  <si>
-    <t>Page 166 · Location 1952</t>
-  </si>
-  <si>
     <t>“ Once he started the applause , ” Bob says , “ it was hard to disagree . The applause felt like it was coming from the board , not just Bill . It was his way of cheerleading , but also of moving things along . ”</t>
   </si>
   <si>
@@ -842,24 +707,12 @@
     <t>Page 170 · Location 2006</t>
   </si>
   <si>
-    <t>With all the trips Bill took with people , the trips were not the goal of the communities , the communities were the goal of the trips . It was all about making enduring connections between people , generating what sociologists call “ social capital . ”</t>
-  </si>
-  <si>
-    <t>Page 172 · Location 2025</t>
-  </si>
-  <si>
     <t>I’m sorry , I can’t do that , was the generic response . You see , we’ve got this process in place . . . To which Bill would have said : bullshit . Bill believed in doing favors for people . He was generous , he liked to help people ,</t>
   </si>
   <si>
     <t>Page 174 · Location 2052</t>
   </si>
   <si>
-    <t>For example , he was a very busy man , but he was generous with his time . Sometimes it took a couple of months to get on his calendar , but if you truly needed him , that phone call would come right away .</t>
-  </si>
-  <si>
-    <t>Page 175 · Location 2067</t>
-  </si>
-  <si>
     <t>Most of the time , these little gifts were what Adam Grant , crediting businessman Adam Rifkin in his book Give and Take , calls “ five - minute favors . ” They are easy for the person doing the favor , requiring minimal personal cost , but mean a lot to the recipient .</t>
   </si>
   <si>
@@ -872,9 +725,6 @@
     <t>Page 176 · Location 2072</t>
   </si>
   <si>
-    <t>As long as we’re on the topic , there’s another type of love Bill prized : love of founders . He held a very special place in his heart for the people who have the guts and skills to start companies .</t>
-  </si>
-  <si>
     <t>Page 178 · Location 2100</t>
   </si>
   <si>
@@ -896,27 +746,12 @@
     <t>Page 178 · Location 2105</t>
   </si>
   <si>
-    <t>LOVE THE FOUNDERS HOLD A SPECIAL REVERENCE FOR — AND PROTECT — THE PEOPLE WITH THE MOST VISION AND PASSION FOR THE COMPANY .</t>
-  </si>
-  <si>
-    <t>Page 181 · Location 2130</t>
-  </si>
-  <si>
     <t>In fact , it is often the highest - performing people who feel the most alone . They usually have more interdependent relationships but feel more independent and separate from others .</t>
   </si>
   <si>
     <t>Page 187 · Location 2188</t>
   </si>
   <si>
-    <t>Bill grasped that there are things we all care about as people — love , family , money , attention , power , meaning , purpose — that are factors in any business situation . That to create effective teams , you need to understand and pay attention to these human values .</t>
-  </si>
-  <si>
-    <t>Page 190 · Location 2236</t>
-  </si>
-  <si>
-    <t>DON’T BE A DILETTANTE . Don’t just do a portfolio of things . Whatever you get involved with , have accountability and consequence . Drive it .</t>
-  </si>
-  <si>
     <t>Page 192 · Location 2251</t>
   </si>
   <si>
@@ -999,6 +834,39 @@
   </si>
   <si>
     <t>1:1</t>
+  </si>
+  <si>
+    <t>1. Performance on job requirements (Sales figures, customer feedback, quality measures)</t>
+  </si>
+  <si>
+    <t>2. Relationship with peer groups (This is critical for company integration and cohesiveness)</t>
+  </si>
+  <si>
+    <t>3. Management/Leadership: Are you guiding / coaching your people ? Are you weeding out the bad ones ? Are you working hard at hiring ? Are you able to get your people to do heroic things ?</t>
+  </si>
+  <si>
+    <t>4. Innovation (Best Practices): Are you constantly moving ahead . . . thinking about how to continually get better ? Are you constantly evaluating new technologies , new products , new practices ? Do you measure yourself against the best in the industry / world ?</t>
+  </si>
+  <si>
+    <t>A place where the top manager makes all decisions leads to […] trying to convince the manager that their idea is the best .</t>
+  </si>
+  <si>
+    <t>He called them “ aberrant geniuses , ” and said , “ You get these quirky guys or women who are going to be great differentiators for you . It is your job to manage that person in a way that doesn’t disrupt the company . They have to be able to work with other people . If they can’t , you need to let them go . They need to work in an environment where they collaborate with other people . ”</t>
+  </si>
+  <si>
+    <t>You can’t get anything done without a team .</t>
+  </si>
+  <si>
+    <t>Leaders lead , he told him . You can’t afford to doubt . You need to commit . You can make mistakes , but you can’t have one foot in and one foot out , because if you aren’t fully committed then the people around you won’t be , either . If you’re in , be in .</t>
+  </si>
+  <si>
+    <t>This is the power of coaching in general : the ability to offer a different perspective , one unaffected by being “ in the game . ”</t>
+  </si>
+  <si>
+    <t>Love of founders . He held a very special place in his heart for the people who have the guts and skills to start companies .</t>
+  </si>
+  <si>
+    <t>Don't be a dilettante. Don’t just do a portfolio of things . Whatever you get involved with , have accountability and consequence . Drive it .</t>
   </si>
 </sst>
 </file>
@@ -1359,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D37569-1466-BB46-878C-17D06629F4A8}">
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,81 +1245,81 @@
   <sheetData>
     <row r="1" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1801,6 +1669,15 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1809,6 +1686,9 @@
       <c r="B27" t="s">
         <v>50</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1817,6 +1697,9 @@
       <c r="B28" t="s">
         <v>52</v>
       </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1825,973 +1708,1502 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
+      <c r="J30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="O55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="K58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="P63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="P64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="P65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="P66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="P67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="P68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
         <v>159</v>
       </c>
-      <c r="B82" t="s">
+      <c r="R85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="B86" t="s">
         <v>161</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="B87" t="s">
         <v>163</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="B88" t="s">
         <v>165</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B89" t="s">
         <v>167</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B90" t="s">
         <v>169</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B91" t="s">
         <v>171</v>
       </c>
-      <c r="B88" t="s">
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B92" t="s">
         <v>173</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="B93" t="s">
         <v>175</v>
       </c>
-      <c r="B90" t="s">
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B94" t="s">
         <v>177</v>
       </c>
-      <c r="B91" t="s">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="B95" t="s">
         <v>179</v>
       </c>
-      <c r="B92" t="s">
+      <c r="R95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="B96" t="s">
         <v>181</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="B97" t="s">
         <v>183</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="B98" t="s">
         <v>185</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="B99" t="s">
         <v>187</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="B100" t="s">
         <v>189</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B101" t="s">
         <v>191</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" t="s">
         <v>195</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="B105" t="s">
         <v>197</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="B106" t="s">
         <v>199</v>
       </c>
-      <c r="B102" t="s">
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="B107" t="s">
         <v>201</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="B108" t="s">
         <v>203</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="B109" t="s">
         <v>205</v>
       </c>
-      <c r="B105" t="s">
+      <c r="V109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="B110" t="s">
         <v>207</v>
       </c>
-      <c r="B106" t="s">
+      <c r="V110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="B111" t="s">
         <v>209</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="B112" t="s">
         <v>211</v>
       </c>
-      <c r="B108" t="s">
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="B113" t="s">
         <v>213</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="X113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="B114" t="s">
         <v>215</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="B115" t="s">
         <v>217</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="B116" t="s">
         <v>219</v>
       </c>
-      <c r="B112" t="s">
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B117" t="s">
         <v>221</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B118" t="s">
         <v>223</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="X118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B119" t="s">
         <v>225</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B120" t="s">
         <v>227</v>
       </c>
-      <c r="B116" t="s">
+      <c r="W120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="B121" t="s">
         <v>229</v>
       </c>
-      <c r="B117" t="s">
+      <c r="W121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B122" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="W122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B123" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B124" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B125" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B126" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
         <v>239</v>
       </c>
-      <c r="B122" t="s">
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="B128" t="s">
         <v>241</v>
       </c>
-      <c r="B123" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B124" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B128" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B133" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B144" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B146" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B149" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B150" t="s">
-        <v>296</v>
+      <c r="C128">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
